--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H2">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.200217989688372</v>
+        <v>0.22859</v>
       </c>
       <c r="N2">
-        <v>0.200217989688372</v>
+        <v>0.68577</v>
       </c>
       <c r="O2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q2">
-        <v>31.91891776174984</v>
+        <v>43.58401954246</v>
       </c>
       <c r="R2">
-        <v>31.91891776174984</v>
+        <v>392.25617588214</v>
       </c>
       <c r="S2">
-        <v>0.01314182242784486</v>
+        <v>0.01347376030879436</v>
       </c>
       <c r="T2">
-        <v>0.01314182242784486</v>
+        <v>0.01347376030879436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H3">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10094435494406</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N3">
-        <v>2.10094435494406</v>
+        <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q3">
-        <v>334.9342893305787</v>
+        <v>415.8363653256313</v>
       </c>
       <c r="R3">
-        <v>334.9342893305787</v>
+        <v>3742.527287930682</v>
       </c>
       <c r="S3">
-        <v>0.1379008833643355</v>
+        <v>0.1285535288598019</v>
       </c>
       <c r="T3">
-        <v>0.1379008833643355</v>
+        <v>0.1285535288598019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H4">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.426155268738376</v>
+        <v>0.173517</v>
       </c>
       <c r="N4">
-        <v>0.426155268738376</v>
+        <v>0.520551</v>
       </c>
       <c r="O4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q4">
-        <v>67.93802593746955</v>
+        <v>33.083548357098</v>
       </c>
       <c r="R4">
-        <v>67.93802593746955</v>
+        <v>297.751935213882</v>
       </c>
       <c r="S4">
-        <v>0.02797179652621145</v>
+        <v>0.01022759730303631</v>
       </c>
       <c r="T4">
-        <v>0.02797179652621145</v>
+        <v>0.01022759730303631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>530.473071781051</v>
+        <v>190.664594</v>
       </c>
       <c r="H5">
-        <v>530.473071781051</v>
+        <v>571.993782</v>
       </c>
       <c r="I5">
-        <v>0.5956710546278936</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J5">
-        <v>0.5956710546278936</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.200217989688372</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N5">
-        <v>0.200217989688372</v>
+        <v>2.439941</v>
       </c>
       <c r="O5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q5">
-        <v>106.2102520158175</v>
+        <v>155.0701200496513</v>
       </c>
       <c r="R5">
-        <v>106.2102520158175</v>
+        <v>1395.631080446862</v>
       </c>
       <c r="S5">
-        <v>0.0437294360174449</v>
+        <v>0.04793907607740207</v>
       </c>
       <c r="T5">
-        <v>0.0437294360174449</v>
+        <v>0.04793907607740206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H6">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.10094435494406</v>
+        <v>0.22859</v>
       </c>
       <c r="N6">
-        <v>2.10094435494406</v>
+        <v>0.68577</v>
       </c>
       <c r="O6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q6">
-        <v>1114.494405608234</v>
+        <v>121.4065222975767</v>
       </c>
       <c r="R6">
-        <v>1114.494405608234</v>
+        <v>1092.65870067819</v>
       </c>
       <c r="S6">
-        <v>0.4588654190801417</v>
+        <v>0.03753215968913171</v>
       </c>
       <c r="T6">
-        <v>0.4588654190801417</v>
+        <v>0.0375321596891317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H7">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.426155268738376</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N7">
-        <v>0.426155268738376</v>
+        <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q7">
-        <v>226.0638944633256</v>
+        <v>1158.343069066088</v>
       </c>
       <c r="R7">
-        <v>226.0638944633256</v>
+        <v>10425.0876215948</v>
       </c>
       <c r="S7">
-        <v>0.09307619953030694</v>
+        <v>0.3580953989969873</v>
       </c>
       <c r="T7">
-        <v>0.09307619953030694</v>
+        <v>0.3580953989969872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.08481145270071</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H8">
-        <v>65.08481145270071</v>
+        <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J8">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.200217989688372</v>
+        <v>0.173517</v>
       </c>
       <c r="N8">
-        <v>0.200217989688372</v>
+        <v>0.520551</v>
       </c>
       <c r="O8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q8">
-        <v>13.03115010830647</v>
+        <v>92.156680211333</v>
       </c>
       <c r="R8">
-        <v>13.03115010830647</v>
+        <v>829.4101219019969</v>
       </c>
       <c r="S8">
-        <v>0.005365252732947503</v>
+        <v>0.02848973162771366</v>
       </c>
       <c r="T8">
-        <v>0.005365252732947503</v>
+        <v>0.02848973162771365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.08481145270071</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H9">
-        <v>65.08481145270071</v>
+        <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J9">
-        <v>0.07308408351082056</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.10094435494406</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N9">
-        <v>2.10094435494406</v>
+        <v>2.439941</v>
       </c>
       <c r="O9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q9">
-        <v>136.73956721415</v>
+        <v>431.9593324602586</v>
       </c>
       <c r="R9">
-        <v>136.73956721415</v>
+        <v>3887.633992142327</v>
       </c>
       <c r="S9">
-        <v>0.05629912406811511</v>
+        <v>0.1335378556134851</v>
       </c>
       <c r="T9">
-        <v>0.05629912406811511</v>
+        <v>0.1335378556134851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H10">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.426155268738376</v>
+        <v>0.22859</v>
       </c>
       <c r="N10">
-        <v>0.426155268738376</v>
+        <v>0.68577</v>
       </c>
       <c r="O10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q10">
-        <v>27.7362353154122</v>
+        <v>18.07369175862667</v>
       </c>
       <c r="R10">
-        <v>27.7362353154122</v>
+        <v>162.66322582764</v>
       </c>
       <c r="S10">
-        <v>0.01141970670975795</v>
+        <v>0.005587382559186112</v>
       </c>
       <c r="T10">
-        <v>0.01141970670975795</v>
+        <v>0.005587382559186112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H11">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I11">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J11">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.200217989688372</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N11">
-        <v>0.200217989688372</v>
+        <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q11">
-        <v>27.14321054530582</v>
+        <v>172.4416051530369</v>
       </c>
       <c r="R11">
-        <v>27.14321054530582</v>
+        <v>1551.974446377332</v>
       </c>
       <c r="S11">
-        <v>0.01117554347458113</v>
+        <v>0.05330937530514506</v>
       </c>
       <c r="T11">
-        <v>0.01117554347458113</v>
+        <v>0.05330937530514506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H12">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I12">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J12">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.10094435494406</v>
+        <v>0.173517</v>
       </c>
       <c r="N12">
-        <v>2.10094435494406</v>
+        <v>0.520551</v>
       </c>
       <c r="O12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q12">
-        <v>284.8214341727068</v>
+        <v>13.719291188948</v>
       </c>
       <c r="R12">
-        <v>284.8214341727068</v>
+        <v>123.473620700532</v>
       </c>
       <c r="S12">
-        <v>0.1172681586349817</v>
+        <v>0.00424124353437288</v>
       </c>
       <c r="T12">
-        <v>0.1172681586349817</v>
+        <v>0.00424124353437288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>135.568290279773</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H13">
-        <v>135.568290279773</v>
+        <v>237.197932</v>
       </c>
       <c r="I13">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J13">
-        <v>0.152230359542894</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.426155268738376</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N13">
-        <v>0.426155268738376</v>
+        <v>2.439941</v>
       </c>
       <c r="O13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q13">
-        <v>57.77314117657883</v>
+        <v>64.3054399335569</v>
       </c>
       <c r="R13">
-        <v>57.77314117657883</v>
+        <v>578.748959402012</v>
       </c>
       <c r="S13">
-        <v>0.02378665743333111</v>
+        <v>0.01987967363524669</v>
       </c>
       <c r="T13">
-        <v>0.02378665743333111</v>
+        <v>0.01987967363524669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H14">
+        <v>454.675102</v>
+      </c>
+      <c r="I14">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J14">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.22859</v>
+      </c>
+      <c r="N14">
+        <v>0.68577</v>
+      </c>
+      <c r="O14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q14">
+        <v>34.64472718872666</v>
+      </c>
+      <c r="R14">
+        <v>311.80254469854</v>
+      </c>
+      <c r="S14">
+        <v>0.01071022716593906</v>
+      </c>
+      <c r="T14">
+        <v>0.01071022716593906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H15">
+        <v>454.675102</v>
+      </c>
+      <c r="I15">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J15">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.542951</v>
+      </c>
+      <c r="O15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q15">
+        <v>330.5463237006669</v>
+      </c>
+      <c r="R15">
+        <v>2974.916913306002</v>
+      </c>
+      <c r="S15">
+        <v>0.1021865808443183</v>
+      </c>
+      <c r="T15">
+        <v>0.1021865808443183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H16">
+        <v>454.675102</v>
+      </c>
+      <c r="I16">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J16">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.173517</v>
+      </c>
+      <c r="N16">
+        <v>0.520551</v>
+      </c>
+      <c r="O16">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P16">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q16">
+        <v>26.297953224578</v>
+      </c>
+      <c r="R16">
+        <v>236.681579021202</v>
+      </c>
+      <c r="S16">
+        <v>0.008129867829529937</v>
+      </c>
+      <c r="T16">
+        <v>0.008129867829529937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>151.5583673333333</v>
+      </c>
+      <c r="H17">
+        <v>454.675102</v>
+      </c>
+      <c r="I17">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="J17">
+        <v>0.1591332164896969</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.439941</v>
+      </c>
+      <c r="O17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q17">
+        <v>123.2644914498869</v>
+      </c>
+      <c r="R17">
+        <v>1109.380423048982</v>
+      </c>
+      <c r="S17">
+        <v>0.03810654064990963</v>
+      </c>
+      <c r="T17">
+        <v>0.03810654064990962</v>
       </c>
     </row>
   </sheetData>
